--- a/Indicateur de confiance des ménages/traitement knime/iindicateur-confiance-menage-2022.xlsx
+++ b/Indicateur de confiance des ménages/traitement knime/iindicateur-confiance-menage-2022.xlsx
@@ -64,13 +64,111 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mean(Indicateur synthétique)</t>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Indicateur synthétique</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Niveau de vie en France - évolution passée</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Niveau de vie en France - perspectives d'évolution</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Chômage - perspectives d'évolution</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Prix - évolution passée</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Prix - perspectives d'évolution</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Opportunité de faire des achats importants</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Opportunité d'épargner</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Capacité d'épargne actuelle</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Situation financière personnelle - évolution passée</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Situation financière personnelle - perspectives d'évolution</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Capacité d'épargne future</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>85.89855392888087</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-72.08333333333334</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-59.49999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.833333333333334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>55.416666666666664</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-31.833333333333332</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25.583333333333336</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15.499999999999998</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-27.25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-20.416666666666664</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.666666666666667</v>
       </c>
     </row>
   </sheetData>
